--- a/biology/Botanique/Ratibida/Ratibida.xlsx
+++ b/biology/Botanique/Ratibida/Ratibida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ratibida est un genre de plantes à fleurs de la famille des Asteraceae d'origine nord-américaine[2],[3]. Les membres du genre sont communément appelés en anglais prairie coneflowers[4],[5],[6] ou mexican-hat[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ratibida est un genre de plantes à fleurs de la famille des Asteraceae d'origine nord-américaine,. Les membres du genre sont communément appelés en anglais prairie coneflowers ou mexican-hat.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce genre possède 7 espèces[8],[9],[10],[11] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce genre possède 7 espèces : 
 Ratibida coahuilensis B. L. Turner - répandue dans le Coahuila
 Ratibida columnifera (Nutt.) Wooton &amp; Standl. - Upright prairie coneflower - répandue au Canada, aux États-Unis et dans le nord-est du Mexique
 Ratibida latipalearis E. L. Richards - répandue dans le Chihuahua
